--- a/data/trans_orig/IP2901-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP2901-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{41FBE01C-EBB3-4C76-A19C-AD55D053C37A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{857D7670-C87D-4737-B0D1-4D72F249A4EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{C9F7375A-07A6-4A37-8911-820711B4E8E3}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{95DCB85E-1E6A-455C-A44F-336EFD56825D}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798" uniqueCount="486">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798" uniqueCount="482">
   <si>
     <t>Menores según el tipo de lactancia recibido durante las 4 primeras semanas de vida en 2007 (Tasa respuesta: 98,24%)</t>
   </si>
@@ -67,7 +67,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Solo biberon</t>
@@ -76,28 +76,28 @@
     <t>10,7%</t>
   </si>
   <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>26,43%</t>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>25,44%</t>
   </si>
   <si>
     <t>13,68%</t>
   </si>
   <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>28,93%</t>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>29,06%</t>
   </si>
   <si>
     <t>12,1%</t>
   </si>
   <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>21,92%</t>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>23,01%</t>
   </si>
   <si>
     <t>Pecho/biberon</t>
@@ -109,7 +109,7 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>12,16%</t>
+    <t>14,68%</t>
   </si>
   <si>
     <t>0%</t>
@@ -121,7 +121,7 @@
     <t>1,57%</t>
   </si>
   <si>
-    <t>7,72%</t>
+    <t>7,95%</t>
   </si>
   <si>
     <t>Pecho</t>
@@ -130,1372 +130,1360 @@
     <t>86,34%</t>
   </si>
   <si>
-    <t>70,58%</t>
-  </si>
-  <si>
-    <t>94,95%</t>
+    <t>72,11%</t>
+  </si>
+  <si>
+    <t>94,94%</t>
   </si>
   <si>
     <t>86,32%</t>
   </si>
   <si>
-    <t>71,07%</t>
-  </si>
-  <si>
-    <t>96,34%</t>
+    <t>70,94%</t>
+  </si>
+  <si>
+    <t>96,54%</t>
   </si>
   <si>
     <t>86,33%</t>
   </si>
   <si>
-    <t>76,02%</t>
-  </si>
-  <si>
-    <t>93,53%</t>
+    <t>75,01%</t>
+  </si>
+  <si>
+    <t>93,19%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>18,9%</t>
   </si>
   <si>
-    <t>13,63%</t>
-  </si>
-  <si>
-    <t>24,87%</t>
+    <t>13,7%</t>
+  </si>
+  <si>
+    <t>24,51%</t>
   </si>
   <si>
     <t>13,24%</t>
   </si>
   <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>19,15%</t>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>18,88%</t>
   </si>
   <si>
     <t>16,21%</t>
   </si>
   <si>
-    <t>12,55%</t>
-  </si>
-  <si>
-    <t>20,42%</t>
+    <t>12,95%</t>
+  </si>
+  <si>
+    <t>20,44%</t>
   </si>
   <si>
     <t>7,92%</t>
   </si>
   <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>12,4%</t>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>12,67%</t>
   </si>
   <si>
     <t>7,63%</t>
   </si>
   <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>12,37%</t>
+  </si>
+  <si>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>73,18%</t>
+  </si>
+  <si>
+    <t>65,97%</t>
+  </si>
+  <si>
+    <t>78,82%</t>
+  </si>
+  <si>
+    <t>79,13%</t>
+  </si>
+  <si>
+    <t>73,08%</t>
+  </si>
+  <si>
+    <t>85,44%</t>
+  </si>
+  <si>
+    <t>76,01%</t>
+  </si>
+  <si>
+    <t>71,26%</t>
+  </si>
+  <si>
+    <t>79,99%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>22,78%</t>
+  </si>
+  <si>
+    <t>18,26%</t>
+  </si>
+  <si>
+    <t>27,66%</t>
+  </si>
+  <si>
+    <t>18,82%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>23,51%</t>
+  </si>
+  <si>
+    <t>20,89%</t>
+  </si>
+  <si>
+    <t>17,91%</t>
+  </si>
+  <si>
+    <t>24,36%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>9,79%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>70,46%</t>
+  </si>
+  <si>
+    <t>65,51%</t>
+  </si>
+  <si>
+    <t>75,46%</t>
+  </si>
+  <si>
+    <t>74,41%</t>
+  </si>
+  <si>
+    <t>69,24%</t>
+  </si>
+  <si>
+    <t>79,31%</t>
+  </si>
+  <si>
+    <t>72,35%</t>
+  </si>
+  <si>
+    <t>68,65%</t>
+  </si>
+  <si>
+    <t>75,8%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>15,74%</t>
+  </si>
+  <si>
+    <t>11,62%</t>
+  </si>
+  <si>
+    <t>21,01%</t>
+  </si>
+  <si>
+    <t>19,23%</t>
+  </si>
+  <si>
+    <t>14,42%</t>
+  </si>
+  <si>
+    <t>24,63%</t>
+  </si>
+  <si>
+    <t>17,43%</t>
+  </si>
+  <si>
+    <t>14,45%</t>
+  </si>
+  <si>
+    <t>21,46%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>14,36%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>11,3%</t>
+  </si>
+  <si>
+    <t>74,26%</t>
+  </si>
+  <si>
+    <t>67,86%</t>
+  </si>
+  <si>
+    <t>79,51%</t>
+  </si>
+  <si>
+    <t>74,0%</t>
+  </si>
+  <si>
+    <t>67,99%</t>
+  </si>
+  <si>
+    <t>79,04%</t>
+  </si>
+  <si>
+    <t>74,14%</t>
+  </si>
+  <si>
+    <t>69,71%</t>
+  </si>
+  <si>
+    <t>77,89%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>18,56%</t>
+  </si>
+  <si>
+    <t>14,49%</t>
+  </si>
+  <si>
+    <t>23,02%</t>
+  </si>
+  <si>
+    <t>19,33%</t>
+  </si>
+  <si>
+    <t>15,36%</t>
+  </si>
+  <si>
+    <t>24,71%</t>
+  </si>
+  <si>
+    <t>18,94%</t>
+  </si>
+  <si>
+    <t>15,78%</t>
+  </si>
+  <si>
+    <t>22,4%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>76,94%</t>
+  </si>
+  <si>
+    <t>71,96%</t>
+  </si>
+  <si>
+    <t>81,51%</t>
+  </si>
+  <si>
+    <t>77,15%</t>
+  </si>
+  <si>
+    <t>71,9%</t>
+  </si>
+  <si>
+    <t>81,85%</t>
+  </si>
+  <si>
+    <t>77,04%</t>
+  </si>
+  <si>
+    <t>73,6%</t>
+  </si>
+  <si>
+    <t>80,74%</t>
+  </si>
+  <si>
+    <t>19,0%</t>
+  </si>
+  <si>
+    <t>16,87%</t>
+  </si>
+  <si>
+    <t>21,82%</t>
+  </si>
+  <si>
+    <t>17,93%</t>
+  </si>
+  <si>
+    <t>15,8%</t>
+  </si>
+  <si>
+    <t>20,66%</t>
+  </si>
+  <si>
+    <t>18,48%</t>
+  </si>
+  <si>
+    <t>16,71%</t>
+  </si>
+  <si>
+    <t>20,02%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>74,13%</t>
+  </si>
+  <si>
+    <t>71,35%</t>
+  </si>
+  <si>
+    <t>76,57%</t>
+  </si>
+  <si>
+    <t>76,37%</t>
+  </si>
+  <si>
+    <t>73,54%</t>
+  </si>
+  <si>
+    <t>78,89%</t>
+  </si>
+  <si>
+    <t>75,22%</t>
+  </si>
+  <si>
+    <t>73,37%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según el tipo de lactancia recibido durante las 4 primeras semanas de vida en 2012 (Tasa respuesta: 98,95%)</t>
+  </si>
+  <si>
+    <t>15,34%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>34,28%</t>
+  </si>
+  <si>
+    <t>18,92%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>38,61%</t>
+  </si>
+  <si>
+    <t>17,01%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>30,36%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>27,18%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>15,1%</t>
+  </si>
+  <si>
+    <t>82,15%</t>
+  </si>
+  <si>
+    <t>62,65%</t>
+  </si>
+  <si>
+    <t>93,04%</t>
+  </si>
+  <si>
+    <t>72,5%</t>
+  </si>
+  <si>
+    <t>52,7%</t>
+  </si>
+  <si>
+    <t>88,25%</t>
+  </si>
+  <si>
+    <t>77,64%</t>
+  </si>
+  <si>
+    <t>63,62%</t>
+  </si>
+  <si>
+    <t>87,37%</t>
+  </si>
+  <si>
+    <t>22,81%</t>
+  </si>
+  <si>
+    <t>16,79%</t>
+  </si>
+  <si>
+    <t>28,98%</t>
+  </si>
+  <si>
+    <t>18,23%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>25,06%</t>
+  </si>
+  <si>
+    <t>20,6%</t>
+  </si>
+  <si>
+    <t>16,58%</t>
+  </si>
+  <si>
+    <t>25,16%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>12,88%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>68,92%</t>
+  </si>
+  <si>
+    <t>62,49%</t>
+  </si>
+  <si>
+    <t>76,19%</t>
+  </si>
+  <si>
+    <t>71,84%</t>
+  </si>
+  <si>
+    <t>84,42%</t>
+  </si>
+  <si>
+    <t>73,73%</t>
+  </si>
+  <si>
+    <t>68,67%</t>
+  </si>
+  <si>
+    <t>78,1%</t>
+  </si>
+  <si>
+    <t>24,43%</t>
+  </si>
+  <si>
+    <t>19,87%</t>
+  </si>
+  <si>
+    <t>29,43%</t>
+  </si>
+  <si>
+    <t>22,53%</t>
+  </si>
+  <si>
+    <t>18,31%</t>
+  </si>
+  <si>
+    <t>27,61%</t>
+  </si>
+  <si>
+    <t>23,52%</t>
+  </si>
+  <si>
+    <t>20,46%</t>
+  </si>
+  <si>
+    <t>27,26%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>9,51%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>69,42%</t>
+  </si>
+  <si>
+    <t>63,94%</t>
+  </si>
+  <si>
+    <t>74,1%</t>
+  </si>
+  <si>
+    <t>70,03%</t>
+  </si>
+  <si>
+    <t>64,76%</t>
+  </si>
+  <si>
+    <t>74,93%</t>
+  </si>
+  <si>
+    <t>69,72%</t>
+  </si>
+  <si>
+    <t>65,46%</t>
+  </si>
+  <si>
+    <t>72,99%</t>
+  </si>
+  <si>
+    <t>23,81%</t>
+  </si>
+  <si>
+    <t>19,09%</t>
+  </si>
+  <si>
+    <t>29,23%</t>
+  </si>
+  <si>
+    <t>22,23%</t>
+  </si>
+  <si>
+    <t>17,39%</t>
+  </si>
+  <si>
+    <t>28,35%</t>
+  </si>
+  <si>
+    <t>23,04%</t>
+  </si>
+  <si>
+    <t>19,65%</t>
+  </si>
+  <si>
+    <t>26,75%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>11,0%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>14,61%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>11,11%</t>
+  </si>
+  <si>
+    <t>68,63%</t>
+  </si>
+  <si>
+    <t>62,85%</t>
+  </si>
+  <si>
+    <t>73,98%</t>
+  </si>
+  <si>
+    <t>67,85%</t>
+  </si>
+  <si>
+    <t>61,38%</t>
+  </si>
+  <si>
+    <t>73,49%</t>
+  </si>
+  <si>
+    <t>68,25%</t>
+  </si>
+  <si>
+    <t>64,4%</t>
+  </si>
+  <si>
+    <t>72,09%</t>
+  </si>
+  <si>
+    <t>29,9%</t>
+  </si>
+  <si>
+    <t>25,27%</t>
+  </si>
+  <si>
+    <t>35,08%</t>
+  </si>
+  <si>
+    <t>21,93%</t>
+  </si>
+  <si>
+    <t>17,48%</t>
+  </si>
+  <si>
+    <t>27,45%</t>
+  </si>
+  <si>
+    <t>25,89%</t>
+  </si>
+  <si>
+    <t>22,76%</t>
+  </si>
+  <si>
+    <t>29,85%</t>
+  </si>
+  <si>
+    <t>11,35%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>16,05%</t>
+  </si>
+  <si>
+    <t>10,38%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>14,23%</t>
+  </si>
+  <si>
+    <t>10,86%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>13,55%</t>
+  </si>
+  <si>
+    <t>58,75%</t>
+  </si>
+  <si>
+    <t>52,96%</t>
+  </si>
+  <si>
+    <t>63,89%</t>
+  </si>
+  <si>
+    <t>67,69%</t>
+  </si>
+  <si>
+    <t>61,97%</t>
+  </si>
+  <si>
+    <t>72,57%</t>
+  </si>
+  <si>
+    <t>63,25%</t>
+  </si>
+  <si>
+    <t>58,93%</t>
+  </si>
+  <si>
+    <t>67,16%</t>
+  </si>
+  <si>
+    <t>25,23%</t>
+  </si>
+  <si>
+    <t>22,67%</t>
+  </si>
+  <si>
+    <t>28,19%</t>
+  </si>
+  <si>
+    <t>19,16%</t>
+  </si>
+  <si>
+    <t>24,29%</t>
+  </si>
+  <si>
+    <t>23,39%</t>
+  </si>
+  <si>
+    <t>21,48%</t>
+  </si>
+  <si>
+    <t>25,1%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>9,93%</t>
+  </si>
+  <si>
+    <t>8,14%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>9,46%</t>
+  </si>
+  <si>
+    <t>66,62%</t>
+  </si>
+  <si>
+    <t>63,76%</t>
+  </si>
+  <si>
+    <t>69,57%</t>
+  </si>
+  <si>
+    <t>70,4%</t>
+  </si>
+  <si>
+    <t>67,31%</t>
+  </si>
+  <si>
+    <t>73,15%</t>
+  </si>
+  <si>
+    <t>68,47%</t>
+  </si>
+  <si>
+    <t>66,4%</t>
+  </si>
+  <si>
+    <t>70,43%</t>
+  </si>
+  <si>
+    <t>Menores según el tipo de lactancia recibido durante las 4 primeras semanas de vida en 2016 (Tasa respuesta: 97,51%)</t>
+  </si>
+  <si>
+    <t>15,82%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>33,08%</t>
+  </si>
+  <si>
+    <t>26,21%</t>
+  </si>
+  <si>
+    <t>10,55%</t>
+  </si>
+  <si>
+    <t>46,72%</t>
+  </si>
+  <si>
+    <t>20,8%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>33,68%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>25,57%</t>
+  </si>
+  <si>
+    <t>12,0%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>31,2%</t>
+  </si>
+  <si>
+    <t>10,01%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>20,59%</t>
+  </si>
+  <si>
+    <t>76,0%</t>
+  </si>
+  <si>
+    <t>57,83%</t>
+  </si>
+  <si>
+    <t>89,39%</t>
+  </si>
+  <si>
+    <t>61,79%</t>
+  </si>
+  <si>
+    <t>41,55%</t>
+  </si>
+  <si>
+    <t>79,63%</t>
+  </si>
+  <si>
+    <t>69,19%</t>
+  </si>
+  <si>
+    <t>55,18%</t>
+  </si>
+  <si>
+    <t>81,39%</t>
+  </si>
+  <si>
+    <t>14,26%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>20,14%</t>
+  </si>
+  <si>
+    <t>17,31%</t>
+  </si>
+  <si>
+    <t>11,46%</t>
+  </si>
+  <si>
+    <t>23,36%</t>
+  </si>
+  <si>
+    <t>15,72%</t>
+  </si>
+  <si>
+    <t>11,89%</t>
+  </si>
+  <si>
+    <t>20,13%</t>
+  </si>
+  <si>
+    <t>10,79%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>16,7%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>12,49%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>12,84%</t>
+  </si>
+  <si>
+    <t>74,94%</t>
+  </si>
+  <si>
+    <t>68,27%</t>
+  </si>
+  <si>
+    <t>81,44%</t>
+  </si>
+  <si>
+    <t>75,19%</t>
+  </si>
+  <si>
+    <t>68,39%</t>
+  </si>
+  <si>
+    <t>81,59%</t>
+  </si>
+  <si>
+    <t>75,06%</t>
+  </si>
+  <si>
+    <t>69,7%</t>
+  </si>
+  <si>
+    <t>79,71%</t>
+  </si>
+  <si>
+    <t>12,7%</t>
+  </si>
+  <si>
+    <t>16,9%</t>
+  </si>
+  <si>
+    <t>15,81%</t>
+  </si>
+  <si>
+    <t>11,91%</t>
+  </si>
+  <si>
+    <t>20,39%</t>
+  </si>
+  <si>
+    <t>14,19%</t>
+  </si>
+  <si>
+    <t>11,72%</t>
+  </si>
+  <si>
+    <t>16,94%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
     <t>4,14%</t>
   </si>
   <si>
+    <t>10,09%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>9,52%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>80,58%</t>
+  </si>
+  <si>
+    <t>75,71%</t>
+  </si>
+  <si>
+    <t>84,69%</t>
+  </si>
+  <si>
+    <t>77,74%</t>
+  </si>
+  <si>
+    <t>72,25%</t>
+  </si>
+  <si>
+    <t>82,01%</t>
+  </si>
+  <si>
+    <t>79,22%</t>
+  </si>
+  <si>
+    <t>76,12%</t>
+  </si>
+  <si>
+    <t>82,48%</t>
+  </si>
+  <si>
+    <t>17,97%</t>
+  </si>
+  <si>
+    <t>13,35%</t>
+  </si>
+  <si>
+    <t>22,17%</t>
+  </si>
+  <si>
+    <t>18,98%</t>
+  </si>
+  <si>
+    <t>14,59%</t>
+  </si>
+  <si>
+    <t>24,15%</t>
+  </si>
+  <si>
+    <t>18,46%</t>
+  </si>
+  <si>
+    <t>15,23%</t>
+  </si>
+  <si>
+    <t>22,1%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>14,27%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>12,74%</t>
+  </si>
+  <si>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>11,97%</t>
+  </si>
+  <si>
+    <t>72,04%</t>
+  </si>
+  <si>
+    <t>76,85%</t>
+  </si>
+  <si>
+    <t>72,8%</t>
+  </si>
+  <si>
+    <t>66,65%</t>
+  </si>
+  <si>
+    <t>78,19%</t>
+  </si>
+  <si>
+    <t>72,41%</t>
+  </si>
+  <si>
+    <t>68,51%</t>
+  </si>
+  <si>
+    <t>76,62%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>13,06%</t>
+  </si>
+  <si>
     <t>12,06%</t>
   </si>
   <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>10,74%</t>
-  </si>
-  <si>
-    <t>73,18%</t>
-  </si>
-  <si>
-    <t>66,38%</t>
-  </si>
-  <si>
-    <t>79,37%</t>
-  </si>
-  <si>
-    <t>79,13%</t>
-  </si>
-  <si>
-    <t>73,16%</t>
-  </si>
-  <si>
-    <t>84,93%</t>
-  </si>
-  <si>
-    <t>76,01%</t>
-  </si>
-  <si>
-    <t>71,39%</t>
-  </si>
-  <si>
-    <t>80,34%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>22,78%</t>
-  </si>
-  <si>
-    <t>18,69%</t>
-  </si>
-  <si>
-    <t>28,23%</t>
-  </si>
-  <si>
-    <t>18,82%</t>
-  </si>
-  <si>
-    <t>14,95%</t>
-  </si>
-  <si>
-    <t>24,1%</t>
-  </si>
-  <si>
-    <t>20,89%</t>
-  </si>
-  <si>
-    <t>17,89%</t>
-  </si>
-  <si>
-    <t>24,36%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>9,98%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>9,96%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>8,92%</t>
-  </si>
-  <si>
-    <t>70,46%</t>
-  </si>
-  <si>
-    <t>64,96%</t>
-  </si>
-  <si>
-    <t>74,78%</t>
-  </si>
-  <si>
-    <t>74,41%</t>
-  </si>
-  <si>
-    <t>68,92%</t>
-  </si>
-  <si>
-    <t>78,71%</t>
-  </si>
-  <si>
-    <t>72,35%</t>
-  </si>
-  <si>
-    <t>68,89%</t>
-  </si>
-  <si>
-    <t>75,82%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>15,74%</t>
-  </si>
-  <si>
-    <t>11,39%</t>
-  </si>
-  <si>
-    <t>20,36%</t>
-  </si>
-  <si>
-    <t>19,23%</t>
-  </si>
-  <si>
-    <t>14,1%</t>
-  </si>
-  <si>
-    <t>24,85%</t>
-  </si>
-  <si>
-    <t>17,43%</t>
-  </si>
-  <si>
-    <t>14,26%</t>
-  </si>
-  <si>
-    <t>21,02%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>14,98%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>11,06%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>11,3%</t>
-  </si>
-  <si>
-    <t>74,26%</t>
-  </si>
-  <si>
-    <t>68,21%</t>
-  </si>
-  <si>
-    <t>79,38%</t>
-  </si>
-  <si>
-    <t>74,0%</t>
-  </si>
-  <si>
-    <t>67,09%</t>
-  </si>
-  <si>
-    <t>79,48%</t>
-  </si>
-  <si>
-    <t>74,14%</t>
-  </si>
-  <si>
-    <t>70,44%</t>
-  </si>
-  <si>
-    <t>78,04%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>18,56%</t>
-  </si>
-  <si>
-    <t>14,85%</t>
-  </si>
-  <si>
-    <t>24,06%</t>
-  </si>
-  <si>
-    <t>19,33%</t>
-  </si>
-  <si>
-    <t>15,1%</t>
-  </si>
-  <si>
-    <t>24,62%</t>
-  </si>
-  <si>
-    <t>18,94%</t>
-  </si>
-  <si>
-    <t>15,94%</t>
-  </si>
-  <si>
-    <t>22,54%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>76,94%</t>
-  </si>
-  <si>
-    <t>71,66%</t>
-  </si>
-  <si>
-    <t>81,12%</t>
-  </si>
-  <si>
-    <t>77,15%</t>
-  </si>
-  <si>
-    <t>71,49%</t>
-  </si>
-  <si>
-    <t>81,67%</t>
-  </si>
-  <si>
-    <t>77,04%</t>
-  </si>
-  <si>
-    <t>73,47%</t>
-  </si>
-  <si>
-    <t>80,2%</t>
-  </si>
-  <si>
-    <t>19,0%</t>
-  </si>
-  <si>
-    <t>16,76%</t>
-  </si>
-  <si>
-    <t>21,36%</t>
-  </si>
-  <si>
-    <t>17,93%</t>
-  </si>
-  <si>
-    <t>15,75%</t>
-  </si>
-  <si>
-    <t>20,38%</t>
-  </si>
-  <si>
-    <t>18,48%</t>
-  </si>
-  <si>
-    <t>16,87%</t>
-  </si>
-  <si>
-    <t>20,32%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>74,13%</t>
-  </si>
-  <si>
-    <t>71,58%</t>
-  </si>
-  <si>
-    <t>76,85%</t>
-  </si>
-  <si>
-    <t>76,37%</t>
-  </si>
-  <si>
-    <t>73,91%</t>
-  </si>
-  <si>
-    <t>78,85%</t>
-  </si>
-  <si>
-    <t>75,22%</t>
-  </si>
-  <si>
-    <t>73,15%</t>
-  </si>
-  <si>
-    <t>77,08%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según el tipo de lactancia recibido durante las 4 primeras semanas de vida en 2012 (Tasa respuesta: 98,95%)</t>
-  </si>
-  <si>
-    <t>15,34%</t>
-  </si>
-  <si>
-    <t>33,23%</t>
-  </si>
-  <si>
-    <t>18,92%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>37,22%</t>
-  </si>
-  <si>
-    <t>17,01%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>27,85%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>13,43%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>26,54%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>14,88%</t>
-  </si>
-  <si>
-    <t>82,15%</t>
-  </si>
-  <si>
-    <t>63,61%</t>
-  </si>
-  <si>
-    <t>92,54%</t>
-  </si>
-  <si>
-    <t>72,5%</t>
-  </si>
-  <si>
-    <t>52,11%</t>
-  </si>
-  <si>
-    <t>88,19%</t>
-  </si>
-  <si>
-    <t>77,64%</t>
-  </si>
-  <si>
-    <t>65,84%</t>
-  </si>
-  <si>
-    <t>87,73%</t>
-  </si>
-  <si>
-    <t>22,81%</t>
-  </si>
-  <si>
-    <t>17,18%</t>
-  </si>
-  <si>
-    <t>29,35%</t>
-  </si>
-  <si>
-    <t>18,23%</t>
-  </si>
-  <si>
-    <t>12,81%</t>
-  </si>
-  <si>
-    <t>25,03%</t>
-  </si>
-  <si>
-    <t>20,6%</t>
-  </si>
-  <si>
-    <t>16,77%</t>
-  </si>
-  <si>
-    <t>25,14%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>12,84%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>61,31%</t>
-  </si>
-  <si>
-    <t>75,38%</t>
-  </si>
-  <si>
-    <t>78,89%</t>
-  </si>
-  <si>
-    <t>71,69%</t>
-  </si>
-  <si>
-    <t>84,75%</t>
-  </si>
-  <si>
-    <t>73,73%</t>
-  </si>
-  <si>
-    <t>68,38%</t>
-  </si>
-  <si>
-    <t>78,21%</t>
-  </si>
-  <si>
-    <t>24,43%</t>
-  </si>
-  <si>
-    <t>19,92%</t>
-  </si>
-  <si>
-    <t>29,33%</t>
-  </si>
-  <si>
-    <t>22,53%</t>
-  </si>
-  <si>
-    <t>18,12%</t>
-  </si>
-  <si>
-    <t>27,15%</t>
-  </si>
-  <si>
-    <t>23,52%</t>
-  </si>
-  <si>
-    <t>26,91%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>10,92%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>69,42%</t>
-  </si>
-  <si>
-    <t>63,87%</t>
-  </si>
-  <si>
-    <t>74,66%</t>
-  </si>
-  <si>
-    <t>70,03%</t>
-  </si>
-  <si>
-    <t>64,21%</t>
-  </si>
-  <si>
-    <t>74,71%</t>
-  </si>
-  <si>
-    <t>69,72%</t>
-  </si>
-  <si>
-    <t>66,44%</t>
-  </si>
-  <si>
-    <t>73,56%</t>
-  </si>
-  <si>
-    <t>23,81%</t>
-  </si>
-  <si>
-    <t>19,17%</t>
-  </si>
-  <si>
-    <t>29,64%</t>
-  </si>
-  <si>
-    <t>22,23%</t>
-  </si>
-  <si>
-    <t>17,04%</t>
-  </si>
-  <si>
-    <t>27,49%</t>
-  </si>
-  <si>
-    <t>23,04%</t>
-  </si>
-  <si>
-    <t>19,2%</t>
-  </si>
-  <si>
-    <t>26,61%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>11,12%</t>
-  </si>
-  <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>14,29%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>11,34%</t>
-  </si>
-  <si>
-    <t>68,63%</t>
-  </si>
-  <si>
-    <t>62,56%</t>
-  </si>
-  <si>
-    <t>74,07%</t>
-  </si>
-  <si>
-    <t>67,85%</t>
-  </si>
-  <si>
-    <t>62,01%</t>
-  </si>
-  <si>
-    <t>73,67%</t>
-  </si>
-  <si>
-    <t>68,25%</t>
-  </si>
-  <si>
-    <t>64,27%</t>
-  </si>
-  <si>
-    <t>72,59%</t>
-  </si>
-  <si>
-    <t>29,9%</t>
-  </si>
-  <si>
-    <t>24,92%</t>
-  </si>
-  <si>
-    <t>35,23%</t>
-  </si>
-  <si>
-    <t>21,93%</t>
-  </si>
-  <si>
-    <t>17,6%</t>
-  </si>
-  <si>
-    <t>27,39%</t>
-  </si>
-  <si>
-    <t>25,89%</t>
-  </si>
-  <si>
-    <t>22,41%</t>
-  </si>
-  <si>
-    <t>30,02%</t>
-  </si>
-  <si>
-    <t>11,35%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>15,17%</t>
-  </si>
-  <si>
-    <t>10,38%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>14,21%</t>
-  </si>
-  <si>
-    <t>10,86%</t>
-  </si>
-  <si>
-    <t>8,5%</t>
-  </si>
-  <si>
-    <t>13,84%</t>
-  </si>
-  <si>
-    <t>58,75%</t>
-  </si>
-  <si>
-    <t>52,89%</t>
-  </si>
-  <si>
-    <t>64,75%</t>
-  </si>
-  <si>
-    <t>67,69%</t>
-  </si>
-  <si>
-    <t>62,13%</t>
-  </si>
-  <si>
-    <t>73,17%</t>
-  </si>
-  <si>
-    <t>63,25%</t>
-  </si>
-  <si>
-    <t>58,73%</t>
-  </si>
-  <si>
-    <t>67,05%</t>
-  </si>
-  <si>
-    <t>25,23%</t>
-  </si>
-  <si>
-    <t>22,7%</t>
-  </si>
-  <si>
-    <t>27,81%</t>
-  </si>
-  <si>
-    <t>21,46%</t>
-  </si>
-  <si>
-    <t>18,97%</t>
-  </si>
-  <si>
-    <t>23,83%</t>
-  </si>
-  <si>
-    <t>23,39%</t>
-  </si>
-  <si>
-    <t>21,64%</t>
-  </si>
-  <si>
-    <t>25,27%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>9,93%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>9,8%</t>
-  </si>
-  <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>66,62%</t>
-  </si>
-  <si>
-    <t>63,86%</t>
-  </si>
-  <si>
-    <t>69,21%</t>
-  </si>
-  <si>
-    <t>70,4%</t>
-  </si>
-  <si>
-    <t>67,58%</t>
-  </si>
-  <si>
-    <t>73,39%</t>
-  </si>
-  <si>
-    <t>68,47%</t>
-  </si>
-  <si>
-    <t>66,5%</t>
-  </si>
-  <si>
-    <t>70,39%</t>
-  </si>
-  <si>
-    <t>Menores según el tipo de lactancia recibido durante las 4 primeras semanas de vida en 2015 (Tasa respuesta: 97,51%)</t>
-  </si>
-  <si>
-    <t>15,82%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>35,86%</t>
-  </si>
-  <si>
-    <t>26,21%</t>
-  </si>
-  <si>
-    <t>10,67%</t>
-  </si>
-  <si>
-    <t>48,88%</t>
-  </si>
-  <si>
-    <t>20,8%</t>
-  </si>
-  <si>
-    <t>12,31%</t>
-  </si>
-  <si>
-    <t>34,26%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>24,91%</t>
-  </si>
-  <si>
-    <t>12,0%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>32,52%</t>
-  </si>
-  <si>
-    <t>10,01%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>21,54%</t>
-  </si>
-  <si>
-    <t>76,0%</t>
-  </si>
-  <si>
-    <t>52,8%</t>
-  </si>
-  <si>
-    <t>88,67%</t>
-  </si>
-  <si>
-    <t>61,79%</t>
-  </si>
-  <si>
-    <t>39,12%</t>
-  </si>
-  <si>
-    <t>80,15%</t>
-  </si>
-  <si>
-    <t>69,19%</t>
-  </si>
-  <si>
-    <t>54,84%</t>
-  </si>
-  <si>
-    <t>80,22%</t>
-  </si>
-  <si>
-    <t>9,62%</t>
-  </si>
-  <si>
-    <t>20,26%</t>
-  </si>
-  <si>
-    <t>17,31%</t>
-  </si>
-  <si>
-    <t>11,85%</t>
-  </si>
-  <si>
-    <t>23,8%</t>
-  </si>
-  <si>
-    <t>15,72%</t>
-  </si>
-  <si>
-    <t>12,21%</t>
-  </si>
-  <si>
-    <t>20,22%</t>
-  </si>
-  <si>
-    <t>10,79%</t>
-  </si>
-  <si>
-    <t>16,27%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>12,48%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>13,0%</t>
-  </si>
-  <si>
-    <t>74,94%</t>
-  </si>
-  <si>
-    <t>67,36%</t>
-  </si>
-  <si>
-    <t>81,19%</t>
-  </si>
-  <si>
-    <t>75,19%</t>
-  </si>
-  <si>
-    <t>67,65%</t>
-  </si>
-  <si>
-    <t>81,57%</t>
-  </si>
-  <si>
-    <t>75,06%</t>
-  </si>
-  <si>
-    <t>70,12%</t>
-  </si>
-  <si>
-    <t>79,3%</t>
-  </si>
-  <si>
-    <t>12,7%</t>
-  </si>
-  <si>
-    <t>9,38%</t>
-  </si>
-  <si>
-    <t>17,0%</t>
-  </si>
-  <si>
-    <t>15,81%</t>
-  </si>
-  <si>
-    <t>12,34%</t>
-  </si>
-  <si>
-    <t>20,11%</t>
-  </si>
-  <si>
-    <t>14,19%</t>
-  </si>
-  <si>
-    <t>11,81%</t>
-  </si>
-  <si>
-    <t>17,27%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>80,58%</t>
-  </si>
-  <si>
-    <t>75,56%</t>
-  </si>
-  <si>
-    <t>77,74%</t>
-  </si>
-  <si>
-    <t>72,92%</t>
-  </si>
-  <si>
-    <t>82,32%</t>
-  </si>
-  <si>
-    <t>79,22%</t>
-  </si>
-  <si>
-    <t>75,74%</t>
-  </si>
-  <si>
-    <t>82,07%</t>
-  </si>
-  <si>
-    <t>17,97%</t>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>10,72%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>13,58%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>11,58%</t>
+  </si>
+  <si>
+    <t>10,6%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>14,5%</t>
+  </si>
+  <si>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>11,94%</t>
+  </si>
+  <si>
+    <t>82,7%</t>
+  </si>
+  <si>
+    <t>78,23%</t>
+  </si>
+  <si>
+    <t>86,95%</t>
+  </si>
+  <si>
+    <t>77,35%</t>
+  </si>
+  <si>
+    <t>72,64%</t>
+  </si>
+  <si>
+    <t>80,01%</t>
+  </si>
+  <si>
+    <t>76,52%</t>
+  </si>
+  <si>
+    <t>83,0%</t>
   </si>
   <si>
     <t>13,33%</t>
   </si>
   <si>
-    <t>22,75%</t>
-  </si>
-  <si>
-    <t>18,98%</t>
-  </si>
-  <si>
-    <t>14,75%</t>
-  </si>
-  <si>
-    <t>24,31%</t>
-  </si>
-  <si>
-    <t>18,46%</t>
-  </si>
-  <si>
-    <t>22,02%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>14,64%</t>
-  </si>
-  <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>12,64%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>12,13%</t>
-  </si>
-  <si>
-    <t>72,04%</t>
-  </si>
-  <si>
-    <t>66,19%</t>
-  </si>
-  <si>
-    <t>77,38%</t>
-  </si>
-  <si>
-    <t>72,8%</t>
-  </si>
-  <si>
-    <t>67,01%</t>
-  </si>
-  <si>
-    <t>77,68%</t>
-  </si>
-  <si>
-    <t>72,41%</t>
-  </si>
-  <si>
-    <t>68,16%</t>
-  </si>
-  <si>
-    <t>76,3%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>13,12%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>16,5%</t>
-  </si>
-  <si>
-    <t>10,72%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>13,72%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>11,64%</t>
-  </si>
-  <si>
-    <t>10,6%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>14,82%</t>
-  </si>
-  <si>
-    <t>9,27%</t>
-  </si>
-  <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>12,23%</t>
-  </si>
-  <si>
-    <t>82,7%</t>
-  </si>
-  <si>
-    <t>78,06%</t>
-  </si>
-  <si>
-    <t>86,79%</t>
-  </si>
-  <si>
-    <t>77,35%</t>
-  </si>
-  <si>
-    <t>71,84%</t>
-  </si>
-  <si>
-    <t>82,08%</t>
-  </si>
-  <si>
-    <t>80,01%</t>
-  </si>
-  <si>
-    <t>76,2%</t>
-  </si>
-  <si>
-    <t>83,04%</t>
-  </si>
-  <si>
-    <t>11,48%</t>
-  </si>
-  <si>
-    <t>15,54%</t>
+    <t>11,38%</t>
+  </si>
+  <si>
+    <t>15,68%</t>
   </si>
   <si>
     <t>15,98%</t>
   </si>
   <si>
-    <t>13,6%</t>
-  </si>
-  <si>
-    <t>18,59%</t>
+    <t>13,82%</t>
+  </si>
+  <si>
+    <t>18,41%</t>
   </si>
   <si>
     <t>14,62%</t>
   </si>
   <si>
-    <t>13,07%</t>
-  </si>
-  <si>
-    <t>16,25%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>10,48%</t>
+    <t>13,09%</t>
+  </si>
+  <si>
+    <t>16,17%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
   </si>
   <si>
     <t>8,41%</t>
   </si>
   <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>10,28%</t>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>10,25%</t>
   </si>
   <si>
     <t>8,46%</t>
   </si>
   <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>9,79%</t>
-  </si>
-  <si>
     <t>78,17%</t>
   </si>
   <si>
-    <t>75,64%</t>
-  </si>
-  <si>
-    <t>80,48%</t>
+    <t>75,76%</t>
+  </si>
+  <si>
+    <t>80,55%</t>
   </si>
   <si>
     <t>75,61%</t>
   </si>
   <si>
-    <t>72,84%</t>
-  </si>
-  <si>
-    <t>78,39%</t>
+    <t>72,67%</t>
+  </si>
+  <si>
+    <t>78,07%</t>
   </si>
   <si>
     <t>76,92%</t>
   </si>
   <si>
-    <t>74,89%</t>
-  </si>
-  <si>
-    <t>78,63%</t>
+    <t>75,13%</t>
+  </si>
+  <si>
+    <t>78,72%</t>
   </si>
 </sst>
 </file>
@@ -1907,7 +1895,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{824B3C7C-0474-427D-93ED-A08955C2B4F5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BD9ED63-7951-408D-B9BD-0D05097914D4}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2512,10 +2500,10 @@
         <v>77</v>
       </c>
       <c r="K13" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="M13" s="7">
         <v>42</v>
@@ -2527,10 +2515,10 @@
         <v>77</v>
       </c>
       <c r="P13" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2545,13 +2533,13 @@
         <v>148023</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>86</v>
       </c>
       <c r="H14" s="7">
         <v>229</v>
@@ -2560,13 +2548,13 @@
         <v>142829</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>89</v>
       </c>
       <c r="M14" s="7">
         <v>455</v>
@@ -2575,13 +2563,13 @@
         <v>290852</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2637,7 +2625,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2649,13 +2637,13 @@
         <v>23139</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>96</v>
       </c>
       <c r="H16" s="7">
         <v>46</v>
@@ -2664,13 +2652,13 @@
         <v>26372</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>99</v>
       </c>
       <c r="M16" s="7">
         <v>83</v>
@@ -2679,13 +2667,13 @@
         <v>49511</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2700,13 +2688,13 @@
         <v>14697</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>105</v>
       </c>
       <c r="H17" s="7">
         <v>15</v>
@@ -2715,13 +2703,13 @@
         <v>9281</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>108</v>
       </c>
       <c r="M17" s="7">
         <v>37</v>
@@ -2730,13 +2718,13 @@
         <v>23979</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2751,13 +2739,13 @@
         <v>109168</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>114</v>
       </c>
       <c r="H18" s="7">
         <v>167</v>
@@ -2766,13 +2754,13 @@
         <v>101477</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="M18" s="7">
         <v>336</v>
@@ -2781,13 +2769,13 @@
         <v>210645</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2843,7 +2831,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -2855,13 +2843,13 @@
         <v>37186</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>124</v>
       </c>
       <c r="H20" s="7">
         <v>51</v>
@@ -2870,13 +2858,13 @@
         <v>39150</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="M20" s="7">
         <v>105</v>
@@ -2885,13 +2873,13 @@
         <v>76336</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2906,13 +2894,13 @@
         <v>9026</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>133</v>
       </c>
       <c r="H21" s="7">
         <v>9</v>
@@ -2921,13 +2909,13 @@
         <v>7136</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="L21" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="M21" s="7">
         <v>22</v>
@@ -2936,13 +2924,13 @@
         <v>16162</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q21" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2957,13 +2945,13 @@
         <v>154188</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>142</v>
       </c>
       <c r="H22" s="7">
         <v>205</v>
@@ -2972,13 +2960,13 @@
         <v>156261</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>145</v>
       </c>
       <c r="M22" s="7">
         <v>433</v>
@@ -2987,13 +2975,13 @@
         <v>310448</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3061,13 +3049,13 @@
         <v>134759</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>151</v>
       </c>
       <c r="H24" s="7">
         <v>181</v>
@@ -3076,13 +3064,13 @@
         <v>119941</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>154</v>
       </c>
       <c r="M24" s="7">
         <v>384</v>
@@ -3091,13 +3079,13 @@
         <v>254700</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3112,13 +3100,13 @@
         <v>48675</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>160</v>
       </c>
       <c r="H25" s="7">
         <v>58</v>
@@ -3127,13 +3115,13 @@
         <v>38146</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>133</v>
       </c>
       <c r="M25" s="7">
         <v>130</v>
@@ -3142,13 +3130,13 @@
         <v>86821</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3163,13 +3151,13 @@
         <v>525713</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>168</v>
       </c>
       <c r="H26" s="7">
         <v>762</v>
@@ -3178,13 +3166,13 @@
         <v>510893</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>171</v>
       </c>
       <c r="M26" s="7">
         <v>1553</v>
@@ -3193,13 +3181,13 @@
         <v>1036605</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="P26" s="7" t="s">
-        <v>173</v>
-      </c>
       <c r="Q26" s="7" t="s">
-        <v>174</v>
+        <v>138</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3255,7 +3243,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
   </sheetData>
@@ -3276,7 +3264,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C47EA4E1-8CD9-4C40-A835-8868F7007760}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F2C1EAE-48F5-4509-92BA-A19896622E96}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3293,7 +3281,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3400,13 +3388,13 @@
         <v>3904</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>178</v>
       </c>
       <c r="H4" s="7">
         <v>5</v>
@@ -3415,13 +3403,13 @@
         <v>4232</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>181</v>
       </c>
       <c r="M4" s="7">
         <v>9</v>
@@ -3430,13 +3418,13 @@
         <v>8136</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3451,13 +3439,13 @@
         <v>640</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>186</v>
+        <v>47</v>
       </c>
       <c r="H5" s="7">
         <v>2</v>
@@ -3466,13 +3454,13 @@
         <v>1920</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>22</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="M5" s="7">
         <v>3</v>
@@ -3481,13 +3469,13 @@
         <v>2560</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>159</v>
+        <v>187</v>
       </c>
       <c r="P5" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3502,13 +3490,13 @@
         <v>20911</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>193</v>
       </c>
       <c r="H6" s="7">
         <v>19</v>
@@ -3517,13 +3505,13 @@
         <v>16221</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>195</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>196</v>
       </c>
       <c r="M6" s="7">
         <v>42</v>
@@ -3532,13 +3520,13 @@
         <v>37132</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>198</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3606,13 +3594,13 @@
         <v>28615</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>201</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>202</v>
       </c>
       <c r="H8" s="7">
         <v>29</v>
@@ -3621,13 +3609,13 @@
         <v>21324</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>204</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>205</v>
       </c>
       <c r="M8" s="7">
         <v>70</v>
@@ -3636,13 +3624,13 @@
         <v>49939</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>207</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3657,13 +3645,13 @@
         <v>10381</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="G9" s="7" t="s">
         <v>210</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>211</v>
       </c>
       <c r="H9" s="7">
         <v>5</v>
@@ -3672,13 +3660,13 @@
         <v>3368</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="K9" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="L9" s="7" t="s">
         <v>213</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>214</v>
       </c>
       <c r="M9" s="7">
         <v>20</v>
@@ -3687,13 +3675,13 @@
         <v>13749</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>216</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3708,7 +3696,7 @@
         <v>86473</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>88</v>
+        <v>217</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>218</v>
@@ -3723,13 +3711,13 @@
         <v>92292</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>221</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>222</v>
       </c>
       <c r="M10" s="7">
         <v>251</v>
@@ -3738,13 +3726,13 @@
         <v>178765</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>224</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3812,13 +3800,13 @@
         <v>53793</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>227</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>228</v>
       </c>
       <c r="H12" s="7">
         <v>72</v>
@@ -3827,13 +3815,13 @@
         <v>45905</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>230</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>231</v>
       </c>
       <c r="M12" s="7">
         <v>151</v>
@@ -3842,10 +3830,10 @@
         <v>99698</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>232</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>96</v>
       </c>
       <c r="Q12" s="7" t="s">
         <v>233</v>
@@ -3863,13 +3851,13 @@
         <v>13531</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>235</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>236</v>
       </c>
       <c r="H13" s="7">
         <v>23</v>
@@ -3878,13 +3866,13 @@
         <v>15161</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>238</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>239</v>
       </c>
       <c r="M13" s="7">
         <v>42</v>
@@ -3893,13 +3881,13 @@
         <v>28691</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="P13" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>240</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3914,13 +3902,13 @@
         <v>152841</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>243</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>244</v>
       </c>
       <c r="H14" s="7">
         <v>220</v>
@@ -3929,13 +3917,13 @@
         <v>142720</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>246</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>247</v>
       </c>
       <c r="M14" s="7">
         <v>441</v>
@@ -3944,13 +3932,13 @@
         <v>295561</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>249</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4006,7 +3994,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4018,13 +4006,13 @@
         <v>38951</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>252</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>253</v>
       </c>
       <c r="H16" s="7">
         <v>54</v>
@@ -4033,13 +4021,13 @@
         <v>34394</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>254</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>255</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>256</v>
       </c>
       <c r="M16" s="7">
         <v>115</v>
@@ -4048,13 +4036,13 @@
         <v>73345</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>258</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4069,13 +4057,13 @@
         <v>12375</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>260</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>261</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>262</v>
       </c>
       <c r="H17" s="7">
         <v>25</v>
@@ -4084,13 +4072,13 @@
         <v>15345</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>263</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>264</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>265</v>
       </c>
       <c r="M17" s="7">
         <v>45</v>
@@ -4099,13 +4087,13 @@
         <v>27720</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>266</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>267</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4120,13 +4108,13 @@
         <v>112277</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>270</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>271</v>
       </c>
       <c r="H18" s="7">
         <v>162</v>
@@ -4135,13 +4123,13 @@
         <v>104962</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>272</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>273</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>274</v>
       </c>
       <c r="M18" s="7">
         <v>333</v>
@@ -4150,13 +4138,13 @@
         <v>217239</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>275</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>276</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4212,7 +4200,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -4224,13 +4212,13 @@
         <v>61915</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>278</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>279</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>280</v>
       </c>
       <c r="H20" s="7">
         <v>61</v>
@@ -4239,13 +4227,13 @@
         <v>45952</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>281</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>282</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>283</v>
       </c>
       <c r="M20" s="7">
         <v>147</v>
@@ -4254,13 +4242,13 @@
         <v>107867</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>284</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>285</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4275,13 +4263,13 @@
         <v>23507</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>287</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="G21" s="7" t="s">
         <v>288</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>289</v>
       </c>
       <c r="H21" s="7">
         <v>29</v>
@@ -4290,13 +4278,13 @@
         <v>21749</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>290</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>291</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>292</v>
       </c>
       <c r="M21" s="7">
         <v>60</v>
@@ -4305,13 +4293,13 @@
         <v>45257</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="P21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>294</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4326,13 +4314,13 @@
         <v>121657</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>296</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>297</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>298</v>
       </c>
       <c r="H22" s="7">
         <v>184</v>
@@ -4341,13 +4329,13 @@
         <v>141831</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>299</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>300</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>301</v>
       </c>
       <c r="M22" s="7">
         <v>348</v>
@@ -4356,13 +4344,13 @@
         <v>263487</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>302</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>303</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4430,13 +4418,13 @@
         <v>187178</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>305</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>306</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>307</v>
       </c>
       <c r="H24" s="7">
         <v>221</v>
@@ -4445,13 +4433,13 @@
         <v>151808</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>308</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>310</v>
       </c>
       <c r="M24" s="7">
         <v>492</v>
@@ -4460,13 +4448,13 @@
         <v>338985</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>311</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4481,13 +4469,13 @@
         <v>60435</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>314</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>316</v>
       </c>
       <c r="H25" s="7">
         <v>84</v>
@@ -4496,13 +4484,13 @@
         <v>57543</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>317</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>319</v>
       </c>
       <c r="M25" s="7">
         <v>170</v>
@@ -4511,13 +4499,13 @@
         <v>117977</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>320</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4532,13 +4520,13 @@
         <v>494160</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>323</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>325</v>
       </c>
       <c r="H26" s="7">
         <v>714</v>
@@ -4547,13 +4535,13 @@
         <v>498026</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>326</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>328</v>
       </c>
       <c r="M26" s="7">
         <v>1415</v>
@@ -4562,13 +4550,13 @@
         <v>992185</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>329</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>330</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>331</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4624,7 +4612,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
   </sheetData>
@@ -4645,7 +4633,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A20B295-1290-4707-A012-08E24C8196C0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D310A571-9348-489F-B58D-9100FEBF2F36}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4662,7 +4650,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4769,13 +4757,13 @@
         <v>3873</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>333</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>334</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>335</v>
       </c>
       <c r="H4" s="7">
         <v>6</v>
@@ -4784,13 +4772,13 @@
         <v>5905</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>336</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>337</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>338</v>
       </c>
       <c r="M4" s="7">
         <v>11</v>
@@ -4799,13 +4787,13 @@
         <v>9778</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>339</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>340</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4820,13 +4808,13 @@
         <v>2005</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="H5" s="7">
         <v>3</v>
@@ -4835,13 +4823,13 @@
         <v>2702</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>344</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>345</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>346</v>
       </c>
       <c r="M5" s="7">
         <v>5</v>
@@ -4850,13 +4838,13 @@
         <v>4707</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>347</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>348</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>349</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4871,13 +4859,13 @@
         <v>18610</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>350</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>351</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>352</v>
       </c>
       <c r="H6" s="7">
         <v>15</v>
@@ -4886,13 +4874,13 @@
         <v>13920</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="L6" s="7" t="s">
         <v>353</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>354</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>355</v>
       </c>
       <c r="M6" s="7">
         <v>37</v>
@@ -4901,13 +4889,13 @@
         <v>32529</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="Q6" s="7" t="s">
         <v>356</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>357</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4975,13 +4963,13 @@
         <v>16804</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>101</v>
+        <v>357</v>
       </c>
       <c r="F8" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>359</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>360</v>
       </c>
       <c r="H8" s="7">
         <v>27</v>
@@ -4990,13 +4978,13 @@
         <v>18558</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>361</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>362</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>363</v>
       </c>
       <c r="M8" s="7">
         <v>50</v>
@@ -5005,13 +4993,13 @@
         <v>35362</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>364</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>365</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5026,10 +5014,10 @@
         <v>12718</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>367</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>180</v>
       </c>
       <c r="G9" s="7" t="s">
         <v>368</v>
@@ -5184,10 +5172,10 @@
         <v>384</v>
       </c>
       <c r="F12" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>385</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>386</v>
       </c>
       <c r="H12" s="7">
         <v>51</v>
@@ -5196,13 +5184,13 @@
         <v>31995</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>387</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>388</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>389</v>
       </c>
       <c r="M12" s="7">
         <v>93</v>
@@ -5211,13 +5199,13 @@
         <v>59845</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>390</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>391</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>392</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5232,13 +5220,13 @@
         <v>14718</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>393</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>394</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>395</v>
       </c>
       <c r="H13" s="7">
         <v>21</v>
@@ -5247,13 +5235,13 @@
         <v>13060</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>396</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>397</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>398</v>
       </c>
       <c r="M13" s="7">
         <v>42</v>
@@ -5262,13 +5250,13 @@
         <v>27779</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>399</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>400</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>401</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5283,13 +5271,13 @@
         <v>176650</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>402</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>403</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>63</v>
       </c>
       <c r="H14" s="7">
         <v>254</v>
@@ -5298,13 +5286,13 @@
         <v>157330</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>404</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>405</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>406</v>
       </c>
       <c r="M14" s="7">
         <v>515</v>
@@ -5313,13 +5301,13 @@
         <v>333980</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>407</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>408</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>409</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5375,7 +5363,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5387,13 +5375,13 @@
         <v>29388</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>410</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>411</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>412</v>
       </c>
       <c r="H16" s="7">
         <v>47</v>
@@ -5402,13 +5390,13 @@
         <v>29045</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>413</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>414</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>415</v>
       </c>
       <c r="M16" s="7">
         <v>93</v>
@@ -5417,10 +5405,10 @@
         <v>58433</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>416</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>289</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>417</v>
@@ -5438,13 +5426,13 @@
         <v>16341</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>418</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>419</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>420</v>
       </c>
       <c r="H17" s="7">
         <v>20</v>
@@ -5453,13 +5441,13 @@
         <v>12574</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>421</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>422</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>423</v>
       </c>
       <c r="M17" s="7">
         <v>43</v>
@@ -5468,13 +5456,13 @@
         <v>28916</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>424</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>425</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>426</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5489,13 +5477,13 @@
         <v>117833</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>428</v>
+        <v>328</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="H18" s="7">
         <v>187</v>
@@ -5504,13 +5492,13 @@
         <v>111394</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="M18" s="7">
         <v>361</v>
@@ -5519,13 +5507,13 @@
         <v>229227</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5581,7 +5569,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -5593,13 +5581,13 @@
         <v>18783</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>322</v>
+        <v>433</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="H20" s="7">
         <v>33</v>
@@ -5608,13 +5596,13 @@
         <v>24478</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>54</v>
+        <v>436</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>439</v>
+        <v>368</v>
       </c>
       <c r="M20" s="7">
         <v>59</v>
@@ -5623,13 +5611,13 @@
         <v>43261</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>440</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>441</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>442</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5644,13 +5632,13 @@
         <v>15906</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>443</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>444</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>445</v>
       </c>
       <c r="H21" s="7">
         <v>30</v>
@@ -5659,13 +5647,13 @@
         <v>21513</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="L21" s="7" t="s">
         <v>446</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>447</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>448</v>
       </c>
       <c r="M21" s="7">
         <v>53</v>
@@ -5674,13 +5662,13 @@
         <v>37419</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>447</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="Q21" s="7" t="s">
         <v>449</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>450</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>451</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5695,13 +5683,13 @@
         <v>165799</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>452</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>453</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>454</v>
       </c>
       <c r="H22" s="7">
         <v>212</v>
@@ -5710,13 +5698,13 @@
         <v>157027</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>457</v>
+        <v>190</v>
       </c>
       <c r="M22" s="7">
         <v>445</v>
@@ -5725,13 +5713,13 @@
         <v>322826</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5799,13 +5787,13 @@
         <v>96697</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>411</v>
+        <v>458</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="H24" s="7">
         <v>164</v>
@@ -5814,13 +5802,13 @@
         <v>109982</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>461</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>462</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>463</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>464</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>465</v>
       </c>
       <c r="M24" s="7">
         <v>306</v>
@@ -5829,13 +5817,13 @@
         <v>206679</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>464</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>465</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>466</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>467</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>468</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5850,13 +5838,13 @@
         <v>61689</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>294</v>
+        <v>158</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="H25" s="7">
         <v>86</v>
@@ -5865,13 +5853,13 @@
         <v>57883</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>469</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>470</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>471</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>472</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>473</v>
       </c>
       <c r="M25" s="7">
         <v>172</v>
@@ -5880,13 +5868,13 @@
         <v>119572</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>475</v>
+        <v>445</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>476</v>
+        <v>80</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5901,13 +5889,13 @@
         <v>567182</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="H26" s="7">
         <v>786</v>
@@ -5916,13 +5904,13 @@
         <v>520263</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="M26" s="7">
         <v>1595</v>
@@ -5931,13 +5919,13 @@
         <v>1087445</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5993,7 +5981,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
   </sheetData>
